--- a/data/WORKHABITS.xlsx
+++ b/data/WORKHABITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56A196BB-0811-4E69-BC08-E96B9682167A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1EC85A-DD02-4D8A-AA2B-601A82682847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{02D73854-2BE9-4B7E-B0A2-C0B23493F556}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>procrastinate (v)</t>
   </si>
@@ -124,6 +124,51 @@
   </si>
   <si>
     <t>Examples</t>
+  </si>
+  <si>
+    <t>If you procrastinate on this project, you will miss the deadline.</t>
+  </si>
+  <si>
+    <t>He is such a procrastinator; he always studies the night before the exam.</t>
+  </si>
+  <si>
+    <t>She is very organized; her desk is always clean and tidy.</t>
+  </si>
+  <si>
+    <t>Remote work requires you to be self-motivated and disciplined.</t>
+  </si>
+  <si>
+    <t>I know this is last minute, but can you help me review this report?</t>
+  </si>
+  <si>
+    <t>Please send the files; I need it as soon as possible.</t>
+  </si>
+  <si>
+    <t>Thanks for lending me your charger. You are a lifesaver.</t>
+  </si>
+  <si>
+    <t>Fixing the printer? No sweat, I can do it in five minutes.</t>
+  </si>
+  <si>
+    <t>I can help with the dishes; I know you've got a lot on your plate right now.</t>
+  </si>
+  <si>
+    <t>I know you're busy, so I won't keep you any longer.</t>
+  </si>
+  <si>
+    <t>Please sign these legal documents before leaving.</t>
+  </si>
+  <si>
+    <t>Call me back asap (as soon as possible).</t>
+  </si>
+  <si>
+    <t>We need a doctor here; it's really urgent.</t>
+  </si>
+  <si>
+    <t>Thanks for covering my shift. I owe you one.</t>
+  </si>
+  <si>
+    <t>The doctor will see you now. Sorry to keep you waiting.</t>
   </si>
 </sst>
 </file>
@@ -139,17 +184,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,17 +214,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -187,13 +232,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,17 +557,17 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -532,140 +578,170 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
